--- a/file/personal/roleImportant/角色要事记录表_2024_副本.xlsx
+++ b/file/personal/roleImportant/角色要事记录表_2024_副本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32700" windowHeight="16440" activeTab="5"/>
+    <workbookView windowWidth="26250" windowHeight="16725" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="角色目录" sheetId="2" r:id="rId1"/>
@@ -13,16 +13,30 @@
     <sheet name="二月" sheetId="11" r:id="rId4"/>
     <sheet name="三月" sheetId="12" r:id="rId5"/>
     <sheet name="四月" sheetId="13" r:id="rId6"/>
+    <sheet name="六月" sheetId="14" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">待办任务!$A$1:$D$32</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="159">
   <si>
     <t>角色</t>
   </si>
@@ -142,6 +156,12 @@
   </si>
   <si>
     <t>1、关注在苏州有没有交上五险,2、如果长期稳定下来可以进行医保转移到苏州的工作</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>五险在全江苏省是统一的</t>
   </si>
   <si>
     <t>研究第二副业</t>
@@ -155,9 +175,6 @@
 5.收益具备复利性，具备滚雪球性质
 6.启动资金少，时间灵活，线上副业
 7.最好是能对自己的各种能力有提升帮助的</t>
-  </si>
-  <si>
-    <t>已完成</t>
   </si>
   <si>
     <t>如何找到副业？
@@ -246,13 +263,13 @@
     <t>如何完成上海落户？</t>
   </si>
   <si>
-    <t>面试相关</t>
+    <t>面试相关（自身成长不能断）</t>
   </si>
   <si>
     <t>研究透彻设计模式（50%）、jvm考点系统性梳理、多线程实战场景梳理</t>
   </si>
   <si>
-    <t>研究透彻业务设计模式DDD、研究透彻设计模式（50%）</t>
+    <t>研究透彻业务设计模式DDD、研究透彻设计模式（50%）、关注本职工作技术RPA</t>
   </si>
   <si>
     <t>springboot、springcloud系统学习</t>
@@ -297,7 +314,7 @@
     <t>全家去旅游一次</t>
   </si>
   <si>
-    <t>去成都旅游/重启/海南全家旅游一次</t>
+    <t>去成都旅游/重庆/海南全家旅游一次</t>
   </si>
   <si>
     <t>日期/角色</t>
@@ -583,16 +600,25 @@
   <si>
     <t>搬运与再创作:小试牛刀</t>
   </si>
+  <si>
+    <t>副业推进:数字人项目出成品</t>
+  </si>
+  <si>
+    <t>关注自身技术学习:jvm知识点整理结尾</t>
+  </si>
+  <si>
+    <t>jvm知识点整理结尾</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -624,7 +650,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -636,45 +662,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,52 +672,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,8 +693,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,9 +740,59 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,6 +819,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -800,12 +832,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,67 +873,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,19 +897,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,7 +921,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -967,43 +945,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,7 +975,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,8 +991,74 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1100,14 +1126,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="13"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1126,14 +1152,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="18"/>
-      </top>
-      <bottom/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1210,24 +1236,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="18"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="13"/>
       </bottom>
@@ -1238,9 +1253,7 @@
       <right style="thin">
         <color indexed="13"/>
       </right>
-      <top style="thin">
-        <color indexed="18"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="13"/>
       </bottom>
@@ -1290,20 +1303,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1317,17 +1327,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1347,17 +1381,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1372,172 +1400,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1562,29 +1575,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1616,7 +1632,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1628,58 +1644,58 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1697,54 +1713,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
@@ -1815,6 +1831,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2071,10 +2092,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+            <a:sym typeface="Calibri" panose="020F0502020204030204"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2637,10 +2658,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+            <a:sym typeface="Calibri" panose="020F0502020204030204"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2883,12 +2904,11 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E30"/>
   <sheetViews>
@@ -2896,233 +2916,233 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="13.5" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.64166666666667" defaultRowHeight="13.5" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.4196428571429" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.4166666666667" style="1" customWidth="1"/>
     <col min="2" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" ht="14" customHeight="1" spans="1:5">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:5">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:5">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:5">
-      <c r="A5" s="50"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:5">
-      <c r="A6" s="50"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
     </row>
     <row r="7" ht="14" customHeight="1" spans="1:5">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
     </row>
     <row r="8" ht="14" customHeight="1" spans="1:5">
-      <c r="A8" s="50"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
     </row>
     <row r="9" ht="14" customHeight="1" spans="1:5">
-      <c r="A9" s="50"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:5">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:5">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
     </row>
     <row r="12" ht="14" customHeight="1" spans="1:5">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
     </row>
     <row r="13" ht="14" customHeight="1" spans="1:5">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:5">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:5">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
     </row>
     <row r="16" ht="14" customHeight="1" spans="1:5">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
     </row>
     <row r="17" ht="14" customHeight="1" spans="1:5">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
     </row>
     <row r="18" ht="14" customHeight="1" spans="1:5">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
     </row>
     <row r="19" ht="14" customHeight="1" spans="1:5">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
     </row>
     <row r="20" ht="14" customHeight="1" spans="1:5">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
     </row>
     <row r="21" ht="14" customHeight="1" spans="1:5">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:5">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
     </row>
     <row r="26" customHeight="1" spans="1:1">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="52" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:1">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:1">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="40" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:1">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:1">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="39" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3140,442 +3160,454 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="13" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.64166666666667" defaultRowHeight="13" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.3571428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="99.1160714285714" style="15" customWidth="1"/>
-    <col min="3" max="3" width="14.1071428571429" style="15" customWidth="1"/>
-    <col min="4" max="4" width="16.3571428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.2678571428571" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7857142857143" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="16.3571428571429" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3583333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="99.1166666666667" style="11" customWidth="1"/>
+    <col min="3" max="3" width="14.1083333333333" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16.3583333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.2666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7833333333333" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="16.3583333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1" spans="1:4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" ht="13.35" hidden="1" customHeight="1" spans="1:4">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="13.35" hidden="1" customHeight="1" spans="1:4">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" ht="13.35" hidden="1" customHeight="1" spans="1:4">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" ht="13.35" hidden="1" customHeight="1" spans="1:4">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" ht="13.35" customHeight="1" spans="1:4">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="27" t="s">
+    <row r="7" hidden="1" customHeight="1" spans="1:5">
+      <c r="A7" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" hidden="1" customHeight="1" spans="1:6">
+      <c r="A8" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" hidden="1" customHeight="1" spans="1:4">
+      <c r="A9" s="34"/>
+      <c r="B9" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" hidden="1" customHeight="1" spans="1:4">
+      <c r="A10" s="34"/>
+      <c r="B10" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" hidden="1" customHeight="1" spans="1:4">
+      <c r="A11" s="34"/>
+      <c r="B11" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" hidden="1" customHeight="1" spans="1:4">
+      <c r="A12" s="34"/>
+      <c r="B12" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" hidden="1" customHeight="1" spans="1:4">
+      <c r="A13" s="34"/>
+      <c r="B13" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="34"/>
+      <c r="B14" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="34"/>
+      <c r="B15" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:5">
+      <c r="A16" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="32" t="s">
+    <row r="18" hidden="1" customHeight="1" spans="1:4">
+      <c r="A18" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" hidden="1" customHeight="1" spans="1:4">
+      <c r="A19" s="19"/>
+      <c r="B19" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" hidden="1" customHeight="1" spans="1:4">
+      <c r="A20" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="29" t="s">
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="32"/>
-      <c r="B9" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="29" t="s">
+      <c r="D21" s="46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="44"/>
+      <c r="B22" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="44"/>
+      <c r="B23" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" s="44"/>
+      <c r="B24" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:4">
+      <c r="A25" s="44"/>
+      <c r="B25" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" hidden="1" customHeight="1" spans="1:4">
+      <c r="A26" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:4">
+      <c r="A27" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="32"/>
-      <c r="B10" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="29" t="s">
+      <c r="D27" s="46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" hidden="1" customHeight="1" spans="1:4">
+      <c r="A28" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:4">
+      <c r="A29" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="32"/>
-      <c r="B11" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="29" t="s">
+      <c r="D29" s="46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:4">
+      <c r="A30" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="32"/>
-      <c r="B12" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="32"/>
-      <c r="B13" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="32"/>
-      <c r="B14" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="32"/>
-      <c r="B15" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="14" t="s">
+      <c r="D30" s="46" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" hidden="1" customHeight="1" spans="1:4">
-      <c r="A18" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="38" t="s">
+    <row r="31" hidden="1" customHeight="1" spans="1:4">
+      <c r="A31" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" hidden="1" customHeight="1" spans="1:4">
-      <c r="A19" s="18"/>
-      <c r="B19" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="43"/>
-      <c r="B22" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="43"/>
-      <c r="B23" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="43"/>
-      <c r="B24" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:4">
-      <c r="A25" s="43"/>
-      <c r="B25" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" hidden="1" customHeight="1" spans="1:4">
-      <c r="A26" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:4">
-      <c r="A27" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" hidden="1" customHeight="1" spans="1:4">
-      <c r="A28" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:4">
-      <c r="A29" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:4">
-      <c r="A30" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" hidden="1" customHeight="1" spans="1:4">
-      <c r="A31" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>30</v>
-      </c>
-    </row>
+    <row r="32" hidden="1" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A1:D32">
     <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="equal" val="重要不紧急"/>
-        <customFilter operator="equal" val="重要紧急"/>
-      </customFilters>
+      <filters>
+        <filter val="重要紧急"/>
+        <filter val="重要不紧急"/>
+      </filters>
     </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="已暂停"/>
+        <filter val="未进行"/>
+        <filter val="进行中"/>
+      </filters>
+    </filterColumn>
+    <extLst/>
   </autoFilter>
   <mergeCells count="4">
     <mergeCell ref="A8:A15"/>
@@ -3597,7 +3629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3609,165 +3641,165 @@
       <selection pane="topRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="13" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.64166666666667" defaultRowHeight="13" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.3571428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.4910714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7321428571429" style="1" customWidth="1"/>
-    <col min="4" max="7" width="16.3571428571429" style="1" customWidth="1"/>
-    <col min="8" max="8" width="85.2589285714286" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="16.3571428571429" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3583333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.4916666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7333333333333" style="1" customWidth="1"/>
+    <col min="4" max="7" width="16.3583333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="85.2583333333333" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.3583333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1" spans="1:8">
-      <c r="A1" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="18" t="s">
         <v>81</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="2" ht="13.65" customHeight="1" spans="1:8">
       <c r="A2" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="18"/>
+        <v>84</v>
+      </c>
+      <c r="C2" s="19"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="11" t="s">
-        <v>42</v>
+      <c r="G2" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="H2" s="7"/>
     </row>
     <row r="3" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="11" t="s">
-        <v>42</v>
+      <c r="G3" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="H3" s="7"/>
     </row>
     <row r="4" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="11" t="s">
-        <v>42</v>
+      <c r="G4" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" ht="13.65" customHeight="1" spans="1:8">
       <c r="A5" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="11" t="s">
-        <v>42</v>
+      <c r="G5" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="H5" s="7"/>
     </row>
     <row r="6" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A6" s="9"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="13" t="s">
-        <v>49</v>
+      <c r="G6" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A7" s="10"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="20" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="7"/>
     </row>
     <row r="8" ht="13.65" customHeight="1" spans="1:8">
       <c r="A8" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="13" t="s">
-        <v>49</v>
+      <c r="G8" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A9" s="9"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="20" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:8">
-      <c r="A10" s="10"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -3778,68 +3810,68 @@
     </row>
     <row r="11" ht="93" customHeight="1" spans="1:8">
       <c r="A11" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>94</v>
+      <c r="G11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="12" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A12" s="9"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="11" t="s">
-        <v>42</v>
+      <c r="G12" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A13" s="9"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="11" t="s">
-        <v>42</v>
+      <c r="G13" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="H13" s="7"/>
     </row>
     <row r="14" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A14" s="9"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="13" t="s">
-        <v>49</v>
+      <c r="G14" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="H14" s="7"/>
     </row>
     <row r="15" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A15" s="10"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -3869,7 +3901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3881,72 +3913,72 @@
       <selection pane="topRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="13" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.64166666666667" defaultRowHeight="13" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.3571428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.4910714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7321428571429" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="16.3571428571429" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3583333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.4916666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7333333333333" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="16.3583333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1" spans="1:8">
-      <c r="A1" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="18" t="s">
         <v>81</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="2" ht="13.65" customHeight="1" spans="1:8">
       <c r="A2" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="11" t="s">
-        <v>42</v>
+      <c r="G2" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="H2" s="7"/>
     </row>
     <row r="3" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="13" t="s">
-        <v>99</v>
+      <c r="G3" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="H3" s="7"/>
     </row>
     <row r="4" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -3957,50 +3989,50 @@
     </row>
     <row r="5" ht="13.65" customHeight="1" spans="1:8">
       <c r="A5" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="11" t="s">
-        <v>42</v>
+      <c r="G5" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="H5" s="7"/>
     </row>
     <row r="6" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A6" s="9"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="13" t="s">
-        <v>99</v>
+      <c r="G6" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A7" s="9"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="13" t="s">
-        <v>99</v>
+      <c r="G7" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="H7" s="7"/>
     </row>
     <row r="8" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A8" s="10"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -4011,36 +4043,36 @@
     </row>
     <row r="9" ht="13.65" customHeight="1" spans="1:8">
       <c r="A9" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="13" t="s">
-        <v>99</v>
+      <c r="G9" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A10" s="9"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="13" t="s">
-        <v>99</v>
+      <c r="G10" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:8">
-      <c r="A11" s="10"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -4051,64 +4083,64 @@
     </row>
     <row r="12" ht="13.65" customHeight="1" spans="1:8">
       <c r="A12" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A13" s="9"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A14" s="9"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="13" t="s">
-        <v>99</v>
+      <c r="G14" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="H14" s="7"/>
     </row>
     <row r="15" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A15" s="9"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="13" t="s">
-        <v>99</v>
+      <c r="G15" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="H15" s="7"/>
     </row>
     <row r="16" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A16" s="10"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4138,348 +4170,348 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G13" sqref="G13"/>
+      <selection pane="topRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="13" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.64166666666667" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.3571428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.4910714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7321428571429" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="16.3571428571429" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3583333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.4916666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7333333333333" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="16.3583333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1" spans="1:8">
-      <c r="A1" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="18" t="s">
         <v>81</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="2" ht="13.65" customHeight="1" spans="1:8">
       <c r="A2" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>37</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" ht="13.35" customHeight="1" spans="1:9">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>43</v>
+      <c r="G3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="11" t="s">
-        <v>42</v>
+      <c r="G4" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>115</v>
+      <c r="G5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="6" ht="13.65" customHeight="1" spans="1:8">
       <c r="A6" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A7" s="9"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="7"/>
     </row>
     <row r="8" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A8" s="9"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="7"/>
     </row>
     <row r="9" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A9" s="9"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>42</v>
+        <v>120</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A10" s="10"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="11" t="s">
-        <v>42</v>
+      <c r="G10" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" ht="13.65" customHeight="1" spans="1:8">
       <c r="A11" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="14" t="s">
-        <v>49</v>
+      <c r="G11" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A12" s="9"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="14" t="s">
-        <v>49</v>
+      <c r="G12" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A13" s="9"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="11" t="s">
-        <v>42</v>
+      <c r="G13" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="H13" s="7"/>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:8">
-      <c r="A14" s="10"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="11" t="s">
-        <v>42</v>
+      <c r="G14" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="H14" s="7"/>
     </row>
     <row r="15" ht="13.65" customHeight="1" spans="1:9">
       <c r="A15" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="I15" s="15" t="s">
+      <c r="G15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>128</v>
       </c>
+      <c r="I15" s="11" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="16" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A16" s="9"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>129</v>
+      <c r="G16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="17" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A17" s="9"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="11" t="s">
-        <v>42</v>
+      <c r="G17" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="H17" s="7"/>
     </row>
     <row r="18" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A18" s="9"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="14" t="s">
-        <v>49</v>
+      <c r="G18" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A19" s="9"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="13" t="s">
         <v>37</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A20" s="10"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="11" t="s">
-        <v>42</v>
+      <c r="G20" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="H20" s="7"/>
     </row>
@@ -4504,36 +4536,36 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I10" sqref="I10"/>
+      <selection pane="topRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="13" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.64166666666667" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.3571428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.4910714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5803571428571" style="1" customWidth="1"/>
-    <col min="4" max="8" width="16.3571428571429" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.8303571428571" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.4285714285714" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.1339285714286" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="16.3571428571429" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3583333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.4916666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5833333333333" style="1" customWidth="1"/>
+    <col min="4" max="8" width="16.3583333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.8333333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.425" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1333333333333" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="16.3583333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -4545,7 +4577,7 @@
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -4557,7 +4589,7 @@
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -4569,7 +4601,7 @@
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -4580,7 +4612,7 @@
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:8">
       <c r="A5" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>1</v>
@@ -4592,263 +4624,263 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" ht="13.65" customHeight="1" spans="1:8">
       <c r="A6" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="11" t="s">
-        <v>42</v>
+      <c r="G6" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" ht="13.35" customHeight="1" spans="1:10">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="I7" s="15" t="s">
+      <c r="G7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="I7" s="11" t="s">
         <v>144</v>
       </c>
+      <c r="J7" s="11" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="8" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="13" t="s">
-        <v>99</v>
+      <c r="G8" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" ht="13.65" customHeight="1" spans="1:8">
       <c r="A9" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="14" t="s">
-        <v>30</v>
+      <c r="G9" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" ht="13.35" customHeight="1" spans="1:10">
-      <c r="A10" s="9"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="14" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="J10" s="15" t="s">
+      <c r="I10" s="11" t="s">
         <v>150</v>
       </c>
+      <c r="J10" s="11" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="11" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A11" s="9"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="14" t="s">
-        <v>30</v>
+      <c r="G11" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" ht="13.65" customHeight="1" spans="1:8">
       <c r="A12" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="14" t="s">
-        <v>30</v>
+      <c r="G12" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="H12" s="7"/>
     </row>
     <row r="13" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A13" s="9"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="14" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H13" s="7"/>
     </row>
     <row r="14" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A14" s="9"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="14" t="s">
-        <v>30</v>
+      <c r="G14" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="H14" s="7"/>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:8">
-      <c r="A15" s="10"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="14" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7"/>
     </row>
     <row r="16" ht="13.65" customHeight="1" spans="1:9">
       <c r="A16" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A17" s="9"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="12"/>
+      <c r="G17" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A18" s="9"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="14" t="s">
-        <v>30</v>
+      <c r="G18" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="H18" s="7"/>
     </row>
     <row r="19" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A19" s="9"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="14" t="s">
-        <v>30</v>
+      <c r="G19" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="H19" s="7"/>
     </row>
     <row r="20" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A20" s="9"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="14" t="s">
-        <v>30</v>
+      <c r="G20" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="H20" s="7"/>
     </row>
     <row r="21" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A21" s="10"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="14" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H21" s="7"/>
     </row>
@@ -4865,7 +4897,247 @@
     <mergeCell ref="A16:A21"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6 G7 G9:G11 G12:G21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6 G7 G10 G13 G15 G21">
+      <formula1>"未进行,进行中,已暂停,已完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.64166666666667" defaultRowHeight="13" customHeight="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="16.3583333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.4916666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5833333333333" style="1" customWidth="1"/>
+    <col min="4" max="5" width="16.3583333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.8333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.425" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1333333333333" style="1" customWidth="1"/>
+    <col min="9" max="16381" width="16.3583333333333" style="1" customWidth="1"/>
+    <col min="16382" max="16382" width="16.3583333333333" style="1"/>
+    <col min="16383" max="16384" width="9.64166666666667" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" ht="14" customHeight="1" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" ht="13.35" customHeight="1" spans="1:7">
+      <c r="A6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" ht="13.35" customHeight="1" spans="1:7">
+      <c r="A9" s="12"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" ht="13.35" customHeight="1" spans="1:5">
+      <c r="A10" s="12"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A12" s="12"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A13" s="12"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" ht="13.65" customHeight="1" spans="1:6">
+      <c r="A14" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" ht="13.35" customHeight="1" spans="1:5">
+      <c r="A15" s="12"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A16" s="12"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A17" s="12"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A18" s="12"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A18"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D18">
       <formula1>"未进行,进行中,已暂停,已完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/file/personal/roleImportant/角色要事记录表_2024_副本.xlsx
+++ b/file/personal/roleImportant/角色要事记录表_2024_副本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26250" windowHeight="16725" activeTab="6"/>
+    <workbookView windowWidth="28520" windowHeight="15760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="角色目录" sheetId="2" r:id="rId1"/>
@@ -13,30 +13,17 @@
     <sheet name="二月" sheetId="11" r:id="rId4"/>
     <sheet name="三月" sheetId="12" r:id="rId5"/>
     <sheet name="四月" sheetId="13" r:id="rId6"/>
-    <sheet name="六月" sheetId="14" r:id="rId7"/>
+    <sheet name="七月" sheetId="14" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">待办任务!$A$1:$D$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">待办任务!$A$1:$D$33</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="164">
   <si>
     <t>角色</t>
   </si>
@@ -287,6 +274,15 @@
     <t>mac电脑中记录的学习备忘需要整理推进</t>
   </si>
   <si>
+    <t>工作目标</t>
+  </si>
+  <si>
+    <t>1、积累人脉,2、积累行业经验,能够为己所用,注重自身成长3、充分利用工作时间,尽量取得好成绩</t>
+  </si>
+  <si>
+    <t>不要这么丧,工作仅仅只是工作而已</t>
+  </si>
+  <si>
     <t>如何拥有健康的身体</t>
   </si>
   <si>
@@ -609,16 +605,22 @@
   <si>
     <t>jvm知识点整理结尾</t>
   </si>
+  <si>
+    <t>副业推进:调研完成各个平台盈利方式</t>
+  </si>
+  <si>
+    <t>工作反思</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -648,130 +650,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,6 +679,122 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,13 +875,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,7 +929,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +953,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,19 +995,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,31 +1031,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,79 +1055,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1140,12 +1142,8 @@
       <left style="thin">
         <color indexed="13"/>
       </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="18"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="13"/>
       </bottom>
@@ -1155,8 +1153,12 @@
       <left style="thin">
         <color indexed="13"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
       <bottom style="thin">
         <color indexed="13"/>
       </bottom>
@@ -1303,17 +1305,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1323,30 +1319,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1381,11 +1353,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1400,157 +1387,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1575,32 +1577,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1632,7 +1631,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1656,41 +1655,41 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1713,54 +1712,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
@@ -2916,233 +2915,233 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64166666666667" defaultRowHeight="13.5" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13.5" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.4166666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.4134615384615" style="1" customWidth="1"/>
     <col min="2" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1" spans="1:5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" ht="14" customHeight="1" spans="1:5">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:5">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:5">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:5">
-      <c r="A5" s="51"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" ht="14" customHeight="1" spans="1:5">
-      <c r="A6" s="51"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="7" ht="14" customHeight="1" spans="1:5">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
     </row>
     <row r="8" ht="14" customHeight="1" spans="1:5">
-      <c r="A8" s="51"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
     </row>
     <row r="9" ht="14" customHeight="1" spans="1:5">
-      <c r="A9" s="51"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:5">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:5">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
     </row>
     <row r="12" ht="14" customHeight="1" spans="1:5">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" ht="14" customHeight="1" spans="1:5">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:5">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:5">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
     </row>
     <row r="16" ht="14" customHeight="1" spans="1:5">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
     </row>
     <row r="17" ht="14" customHeight="1" spans="1:5">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
     </row>
     <row r="18" ht="14" customHeight="1" spans="1:5">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
     </row>
     <row r="19" ht="14" customHeight="1" spans="1:5">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
     </row>
     <row r="20" ht="14" customHeight="1" spans="1:5">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
     </row>
     <row r="21" ht="14" customHeight="1" spans="1:5">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
     </row>
     <row r="23" ht="14" customHeight="1" spans="1:5">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
     </row>
     <row r="26" customHeight="1" spans="1:1">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="51" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:1">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="25" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:1">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="38" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:1">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="29" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:1">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="37" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3164,118 +3163,118 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64166666666667" defaultRowHeight="13" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.3583333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="99.1166666666667" style="11" customWidth="1"/>
-    <col min="3" max="3" width="14.1083333333333" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.3583333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.2666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7833333333333" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="16.3583333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3557692307692" style="1" customWidth="1"/>
+    <col min="2" max="2" width="99.1153846153846" style="12" customWidth="1"/>
+    <col min="3" max="3" width="14.1057692307692" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16.3557692307692" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.2692307692308" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7788461538462" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="16.3557692307692" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1" spans="1:4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" ht="13.35" hidden="1" customHeight="1" spans="1:4">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" ht="13.35" hidden="1" customHeight="1" spans="1:4">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" ht="13.35" hidden="1" customHeight="1" spans="1:4">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="26" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" ht="13.35" hidden="1" customHeight="1" spans="1:4">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" ht="13.35" customHeight="1" spans="1:4">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" hidden="1" customHeight="1" spans="1:5">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="32" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -3283,116 +3282,116 @@
       </c>
     </row>
     <row r="8" hidden="1" customHeight="1" spans="1:6">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="11"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" hidden="1" customHeight="1" spans="1:4">
-      <c r="A9" s="34"/>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="32" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" hidden="1" customHeight="1" spans="1:4">
-      <c r="A10" s="34"/>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="32" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" hidden="1" customHeight="1" spans="1:4">
-      <c r="A11" s="34"/>
-      <c r="B11" s="32" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="32" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" hidden="1" customHeight="1" spans="1:4">
-      <c r="A12" s="34"/>
-      <c r="B12" s="36" t="s">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="32" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" hidden="1" customHeight="1" spans="1:4">
-      <c r="A13" s="34"/>
-      <c r="B13" s="32" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="32" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="34"/>
-      <c r="B14" s="32" t="s">
+      <c r="A14" s="33"/>
+      <c r="B14" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="34"/>
-      <c r="B15" s="32" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="30" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -3400,205 +3399,222 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" hidden="1" customHeight="1" spans="1:4">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="39" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" hidden="1" customHeight="1" spans="1:4">
-      <c r="A19" s="19"/>
-      <c r="B19" s="32" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="39" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" hidden="1" customHeight="1" spans="1:4">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="32" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="44" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="44"/>
-      <c r="B22" s="32" t="s">
+      <c r="A22" s="42"/>
+      <c r="B22" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46" t="s">
+      <c r="C22" s="43"/>
+      <c r="D22" s="44" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="44"/>
-      <c r="B23" s="32" t="s">
+      <c r="A23" s="42"/>
+      <c r="B23" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46" t="s">
+      <c r="C23" s="43"/>
+      <c r="D23" s="44" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="44"/>
-      <c r="B24" s="32" t="s">
+      <c r="A24" s="42"/>
+      <c r="B24" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46" t="s">
+      <c r="C24" s="43"/>
+      <c r="D24" s="44" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:4">
-      <c r="A25" s="44"/>
-      <c r="B25" s="32" t="s">
+      <c r="A25" s="42"/>
+      <c r="B25" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46" t="s">
+      <c r="C25" s="43"/>
+      <c r="D25" s="44" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" hidden="1" customHeight="1" spans="1:4">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:4">
-      <c r="A27" s="32" t="s">
+    <row r="27" customHeight="1" spans="1:5">
+      <c r="A27" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:4">
+      <c r="A28" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" hidden="1" customHeight="1" spans="1:4">
-      <c r="A28" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="26" t="s">
+    <row r="29" hidden="1" customHeight="1" spans="1:4">
+      <c r="A29" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D29" s="44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:4">
-      <c r="A29" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="30" t="s">
+    <row r="30" customHeight="1" spans="1:4">
+      <c r="A30" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="46" t="s">
+      <c r="D30" s="44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:4">
-      <c r="A30" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="30" t="s">
+    <row r="31" customHeight="1" spans="1:4">
+      <c r="A31" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="D31" s="44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" hidden="1" customHeight="1" spans="1:4">
-      <c r="A31" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="26" t="s">
+    <row r="32" hidden="1" customHeight="1" spans="1:4">
+      <c r="A32" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D32" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" hidden="1" customHeight="1"/>
+    <row r="33" hidden="1" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:D32">
+  <autoFilter ref="A1:D33">
     <filterColumn colId="2">
-      <filters>
-        <filter val="重要紧急"/>
-        <filter val="重要不紧急"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="重要紧急"/>
+        <customFilter operator="equal" val="重要不紧急"/>
+      </customFilters>
     </filterColumn>
     <filterColumn colId="3">
       <filters>
@@ -3616,7 +3632,7 @@
     <mergeCell ref="C21:C25"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D2:D4 D18:D19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D2:D4 D18:D19">
       <formula1>"未进行,进行中,已暂停,已完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3641,50 +3657,50 @@
       <selection pane="topRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64166666666667" defaultRowHeight="13" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.3583333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.4916666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7333333333333" style="1" customWidth="1"/>
-    <col min="4" max="7" width="16.3583333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="85.2583333333333" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="16.3583333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3557692307692" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.4903846153846" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7307692307692" style="1" customWidth="1"/>
+    <col min="4" max="7" width="16.3557692307692" style="1" customWidth="1"/>
+    <col min="8" max="8" width="85.2596153846154" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.3557692307692" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1" spans="1:8">
-      <c r="A1" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>82</v>
+      <c r="G1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="2" ht="13.65" customHeight="1" spans="1:8">
       <c r="A2" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="19"/>
+        <v>87</v>
+      </c>
+      <c r="C2" s="18"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -3694,9 +3710,9 @@
       <c r="H2" s="7"/>
     </row>
     <row r="3" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A3" s="9"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -3707,9 +3723,9 @@
       <c r="H3" s="7"/>
     </row>
     <row r="4" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -3722,11 +3738,11 @@
     </row>
     <row r="5" ht="13.65" customHeight="1" spans="1:8">
       <c r="A5" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -3737,10 +3753,10 @@
       <c r="H5" s="7"/>
     </row>
     <row r="6" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A6" s="12"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -3749,30 +3765,30 @@
         <v>50</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A7" s="16"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="7"/>
     </row>
     <row r="8" ht="13.65" customHeight="1" spans="1:8">
       <c r="A8" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -3781,25 +3797,25 @@
         <v>50</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A9" s="12"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" ht="14" customHeight="1" spans="1:8">
-      <c r="A10" s="16"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -3810,11 +3826,11 @@
     </row>
     <row r="11" ht="93" customHeight="1" spans="1:8">
       <c r="A11" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -3822,15 +3838,15 @@
       <c r="G11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>95</v>
+      <c r="H11" s="11" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="12" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A12" s="12"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -3839,14 +3855,14 @@
         <v>40</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A13" s="12"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -3857,10 +3873,10 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A14" s="12"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -3871,7 +3887,7 @@
       <c r="H14" s="7"/>
     </row>
     <row r="15" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A15" s="16"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -3913,47 +3929,47 @@
       <selection pane="topRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64166666666667" defaultRowHeight="13" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.3583333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.4916666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7333333333333" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="16.3583333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3557692307692" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.4903846153846" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7307692307692" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="16.3557692307692" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1" spans="1:8">
-      <c r="A1" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>82</v>
+      <c r="G1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="2" ht="13.65" customHeight="1" spans="1:8">
       <c r="A2" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -3964,21 +3980,21 @@
       <c r="H2" s="7"/>
     </row>
     <row r="3" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A3" s="9"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H3" s="7"/>
     </row>
     <row r="4" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -3989,11 +4005,11 @@
     </row>
     <row r="5" ht="13.65" customHeight="1" spans="1:8">
       <c r="A5" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -4004,35 +4020,35 @@
       <c r="H5" s="7"/>
     </row>
     <row r="6" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A6" s="12"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A7" s="12"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H7" s="7"/>
     </row>
     <row r="8" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A8" s="16"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -4043,36 +4059,36 @@
     </row>
     <row r="9" ht="13.65" customHeight="1" spans="1:8">
       <c r="A9" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A10" s="12"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:8">
-      <c r="A11" s="16"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -4083,64 +4099,64 @@
     </row>
     <row r="12" ht="13.65" customHeight="1" spans="1:8">
       <c r="A12" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A13" s="12"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A14" s="12"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H14" s="7"/>
     </row>
     <row r="15" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A15" s="12"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H15" s="7"/>
     </row>
     <row r="16" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A16" s="16"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4182,81 +4198,81 @@
       <selection pane="topRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64166666666667" defaultRowHeight="13" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.3583333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.4916666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7333333333333" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="16.3583333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3557692307692" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.4903846153846" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7307692307692" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="16.3557692307692" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14" customHeight="1" spans="1:8">
-      <c r="A1" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>82</v>
+      <c r="G1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="2" ht="13.65" customHeight="1" spans="1:8">
       <c r="A2" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="10" t="s">
         <v>37</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" ht="13.35" customHeight="1" spans="1:9">
-      <c r="A3" s="9"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="H3" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -4265,77 +4281,77 @@
         <v>40</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A5" s="9"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>116</v>
+      <c r="H5" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="6" ht="13.65" customHeight="1" spans="1:8">
       <c r="A6" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A7" s="12"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="7"/>
     </row>
     <row r="8" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A8" s="12"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="7"/>
     </row>
     <row r="9" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A9" s="12"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>40</v>
@@ -4343,10 +4359,10 @@
       <c r="H9" s="7"/>
     </row>
     <row r="10" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A10" s="16"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -4358,43 +4374,43 @@
     </row>
     <row r="11" ht="13.65" customHeight="1" spans="1:8">
       <c r="A11" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="10" t="s">
         <v>50</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A12" s="12"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="10" t="s">
         <v>50</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A13" s="12"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -4405,10 +4421,10 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" ht="14" customHeight="1" spans="1:8">
-      <c r="A14" s="16"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -4420,11 +4436,11 @@
     </row>
     <row r="15" ht="13.65" customHeight="1" spans="1:9">
       <c r="A15" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -4432,18 +4448,18 @@
       <c r="G15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>129</v>
+      <c r="H15" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="16" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A16" s="12"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -4451,15 +4467,15 @@
       <c r="G16" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>130</v>
+      <c r="H16" s="11" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="17" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A17" s="12"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -4470,41 +4486,41 @@
       <c r="H17" s="7"/>
     </row>
     <row r="18" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A18" s="12"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="10" t="s">
         <v>50</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A19" s="12"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="10" t="s">
         <v>37</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A20" s="16"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -4543,29 +4559,29 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64166666666667" defaultRowHeight="13" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.3583333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.4916666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5833333333333" style="1" customWidth="1"/>
-    <col min="4" max="8" width="16.3583333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.8333333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.425" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.1333333333333" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="16.3583333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3557692307692" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.4903846153846" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5865384615385" style="1" customWidth="1"/>
+    <col min="4" max="8" width="16.3557692307692" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.8365384615385" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.4230769230769" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1346153846154" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="16.3557692307692" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -4577,7 +4593,7 @@
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -4589,7 +4605,7 @@
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -4601,7 +4617,7 @@
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -4612,7 +4628,7 @@
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:8">
       <c r="A5" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>1</v>
@@ -4624,24 +4640,24 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" ht="13.65" customHeight="1" spans="1:8">
       <c r="A6" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -4653,63 +4669,63 @@
       <c r="H6" s="7"/>
     </row>
     <row r="7" ht="13.35" customHeight="1" spans="1:10">
-      <c r="A7" s="9"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>145</v>
+      <c r="H7" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="8" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A8" s="9"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" ht="13.65" customHeight="1" spans="1:8">
       <c r="A9" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" ht="13.35" customHeight="1" spans="1:10">
-      <c r="A10" s="12"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -4718,48 +4734,48 @@
         <v>40</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>151</v>
+      <c r="I10" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="11" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A11" s="12"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H11" s="7"/>
     </row>
     <row r="12" ht="13.65" customHeight="1" spans="1:8">
       <c r="A12" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H12" s="7"/>
     </row>
     <row r="13" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A13" s="12"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -4770,25 +4786,25 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A14" s="12"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H14" s="7"/>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:8">
-      <c r="A15" s="16"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -4799,83 +4815,83 @@
     </row>
     <row r="16" ht="13.65" customHeight="1" spans="1:9">
       <c r="A16" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" ht="13.35" customHeight="1" spans="1:8">
-      <c r="A17" s="12"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" s="10"/>
+        <v>103</v>
+      </c>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A18" s="12"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H18" s="7"/>
     </row>
     <row r="19" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A19" s="12"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7"/>
     </row>
     <row r="20" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A20" s="12"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7"/>
     </row>
     <row r="21" ht="13.65" customHeight="1" spans="1:8">
-      <c r="A21" s="16"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -4914,34 +4930,34 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C23" sqref="C23"/>
+      <selection pane="topRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64166666666667" defaultRowHeight="13" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.3583333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.4916666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5833333333333" style="1" customWidth="1"/>
-    <col min="4" max="5" width="16.3583333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.8333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.425" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.1333333333333" style="1" customWidth="1"/>
-    <col min="9" max="16381" width="16.3583333333333" style="1" customWidth="1"/>
-    <col min="16382" max="16382" width="16.3583333333333" style="1"/>
-    <col min="16383" max="16384" width="9.64166666666667" style="1"/>
+    <col min="1" max="1" width="16.3557692307692" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.4903846153846" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5865384615385" style="1" customWidth="1"/>
+    <col min="4" max="5" width="16.3557692307692" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.8365384615385" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.4230769230769" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1346153846154" style="1" customWidth="1"/>
+    <col min="9" max="16381" width="16.3557692307692" style="1" customWidth="1"/>
+    <col min="16382" max="16382" width="16.3557692307692" style="1"/>
+    <col min="16383" max="16384" width="9.64423076923077" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -4950,7 +4966,7 @@
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -4959,7 +4975,7 @@
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -4967,7 +4983,7 @@
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>1</v>
@@ -4976,154 +4992,165 @@
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" ht="13.65" customHeight="1" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
     <row r="6" ht="13.35" customHeight="1" spans="1:7">
-      <c r="A6" s="9"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" ht="13.65" customHeight="1" spans="1:5">
-      <c r="A7" s="9"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
     <row r="8" ht="13.65" customHeight="1" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
     <row r="9" ht="13.35" customHeight="1" spans="1:7">
-      <c r="A9" s="12"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A10" s="12"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" ht="13.65" customHeight="1" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12" ht="13.65" customHeight="1" spans="1:5">
-      <c r="A12" s="12"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="7"/>
     </row>
     <row r="13" ht="13.65" customHeight="1" spans="1:5">
-      <c r="A13" s="12"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="7"/>
     </row>
     <row r="14" ht="13.65" customHeight="1" spans="1:6">
       <c r="A14" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A15" s="12"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" ht="13.65" customHeight="1" spans="1:5">
-      <c r="A16" s="12"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="7"/>
     </row>
     <row r="17" ht="13.65" customHeight="1" spans="1:5">
-      <c r="A17" s="12"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="7"/>
     </row>
     <row r="18" ht="13.65" customHeight="1" spans="1:5">
-      <c r="A18" s="12"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="7"/>
+    </row>
+    <row r="19" ht="13.65" customHeight="1" spans="1:5">
+      <c r="A19" s="9"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5134,10 +5161,10 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A14:A19"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17 D11:D16 D18:D19">
       <formula1>"未进行,进行中,已暂停,已完成"</formula1>
     </dataValidation>
   </dataValidations>
